--- a/config/有效数据合并.xlsx
+++ b/config/有效数据合并.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myproj\auditcenter_apitest\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproj\auditcenter_apitest\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F742A-C2ED-45F7-8ABA-3A641AD07BDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EFF0A2-5C9D-4F3E-A16B-68A30B6771ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4125" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6A1FF4C4-757D-4688-8A69-9529CB73075F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6A1FF4C4-757D-4688-8A69-9529CB73075F}"/>
   </bookViews>
   <sheets>
     <sheet name="门诊按处方" sheetId="1" r:id="rId1"/>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>eno2</t>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未审核</t>
@@ -871,6 +867,10 @@
   </si>
   <si>
     <t>test_time非当天0-24点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,6 +1126,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1526,8 +1538,8 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1560,7 @@
     <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="C1" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>34</v>
@@ -1574,13 +1586,13 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -1592,20 +1604,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="41"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -1617,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>46</v>
@@ -1626,7 +1638,7 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="25"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -1637,7 +1649,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="41"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -1649,7 +1661,7 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="23"/>
     </row>
@@ -1657,7 +1669,7 @@
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="43" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="25">
@@ -1680,14 +1692,14 @@
         <v>41</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="41"/>
+      <c r="A8" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="45"/>
       <c r="C8" s="25">
         <v>2</v>
       </c>
@@ -1705,15 +1717,15 @@
         <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="25">
         <v>3</v>
       </c>
@@ -1731,15 +1743,15 @@
         <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="25">
         <v>4</v>
       </c>
@@ -1757,18 +1769,18 @@
         <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="25">
         <v>5</v>
@@ -1786,23 +1798,23 @@
         <v>42</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="3"/>
       <c r="J12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1811,37 +1823,37 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="25">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" t="s">
-        <v>126</v>
-      </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="25">
         <v>2</v>
       </c>
@@ -1855,18 +1867,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" t="s">
         <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="25">
         <v>3</v>
       </c>
@@ -1886,12 +1898,12 @@
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="25">
         <v>4</v>
       </c>
@@ -1911,11 +1923,11 @@
         <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
+      <c r="A18" s="44"/>
       <c r="C18" s="26">
         <v>5</v>
       </c>
@@ -1935,7 +1947,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1943,11 +1955,11 @@
       <c r="D19" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>141</v>
+      <c r="B21" s="43" t="s">
+        <v>140</v>
       </c>
       <c r="C21" s="25">
         <v>1</v>
@@ -1968,15 +1980,15 @@
         <v>27</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="26">
         <v>2</v>
       </c>
@@ -1996,15 +2008,15 @@
         <v>26</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="26">
         <v>3</v>
       </c>
@@ -2012,10 +2024,10 @@
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>137</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>138</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
@@ -2024,15 +2036,15 @@
         <v>28</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="26">
         <v>4</v>
       </c>
@@ -2052,15 +2064,15 @@
         <v>26</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="25">
         <v>5</v>
       </c>
@@ -2080,15 +2092,15 @@
         <v>28</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="26">
         <v>6</v>
       </c>
@@ -2108,16 +2120,16 @@
         <v>26</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27"/>
@@ -2126,15 +2138,15 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>145</v>
+      <c r="B28" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="29" t="s">
@@ -2147,18 +2159,18 @@
         <v>0</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="26"/>
       <c r="D29" s="29" t="s">
         <v>8</v>
@@ -2170,41 +2182,41 @@
         <v>0</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="26"/>
       <c r="D30" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="G30" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="26"/>
       <c r="D31" s="29" t="s">
         <v>8</v>
@@ -2216,18 +2228,18 @@
         <v>7</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="25"/>
       <c r="D32" s="29" t="s">
         <v>8</v>
@@ -2239,18 +2251,18 @@
         <v>0</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="26"/>
       <c r="D33" s="29" t="s">
         <v>8</v>
@@ -2262,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2277,7 +2289,7 @@
       <c r="C34" s="26"/>
       <c r="D34" s="3"/>
       <c r="J34" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2287,11 +2299,11 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="39" t="s">
-        <v>145</v>
+      <c r="B36" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="29" t="s">
@@ -2304,19 +2316,19 @@
         <v>0</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="26"/>
       <c r="D37" s="29" t="s">
         <v>8</v>
@@ -2328,43 +2340,43 @@
         <v>0</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="26"/>
       <c r="D38" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="30" t="s">
-        <v>138</v>
-      </c>
       <c r="G38" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29" t="s">
         <v>8</v>
@@ -2376,19 +2388,19 @@
         <v>7</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="25"/>
       <c r="D40" s="29" t="s">
         <v>8</v>
@@ -2400,19 +2412,19 @@
         <v>0</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="26"/>
       <c r="D41" s="29" t="s">
         <v>8</v>
@@ -2424,14 +2436,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2445,7 +2457,7 @@
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
       <c r="J42" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2612,19 +2624,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AA5A15-F98E-49D1-B119-F5D91015AED6}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.5" style="2" customWidth="1"/>
@@ -2636,334 +2648,334 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="C1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="48"/>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="48"/>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="48"/>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="48"/>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="48"/>
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="48"/>
+      <c r="D8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="48"/>
+      <c r="D9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44"/>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44"/>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
-      <c r="C7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="39"/>
-      <c r="C11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>1</v>
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="43"/>
+      <c r="D11" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="43"/>
+      <c r="D12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>1</v>
-      </c>
       <c r="E12" s="20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="43" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="25">
@@ -2986,14 +2998,14 @@
         <v>41</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="41"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="45"/>
       <c r="C15" s="25">
         <v>2</v>
       </c>
@@ -3011,15 +3023,15 @@
         <v>42</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="41"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="25">
         <v>3</v>
       </c>
@@ -3037,15 +3049,15 @@
         <v>42</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="25">
         <v>4</v>
       </c>
@@ -3063,18 +3075,18 @@
         <v>44</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="114" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="25">
         <v>5</v>
@@ -3093,18 +3105,18 @@
         <v>42</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="29"/>
@@ -3114,7 +3126,7 @@
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
       <c r="J19" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3130,38 +3142,38 @@
       <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="30" t="s">
         <v>125</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="25">
-        <v>1</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>126</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="25">
         <v>2</v>
       </c>
@@ -3175,19 +3187,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="25">
         <v>3</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>14</v>
@@ -3207,12 +3219,12 @@
         <v>25</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="25">
         <v>4</v>
       </c>
@@ -3233,12 +3245,12 @@
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="25">
         <v>5</v>
       </c>
@@ -3259,11 +3271,11 @@
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="30"/>
       <c r="C26" s="25">
         <v>6</v>
@@ -3285,7 +3297,7 @@
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3299,7 +3311,7 @@
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3315,11 +3327,11 @@
       <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>141</v>
+      <c r="B29" s="43" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="25">
         <v>1</v>
@@ -3340,15 +3352,15 @@
         <v>27</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="26">
         <v>2</v>
       </c>
@@ -3368,15 +3380,15 @@
         <v>26</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="26">
         <v>3</v>
       </c>
@@ -3384,10 +3396,10 @@
         <v>8</v>
       </c>
       <c r="E31" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="30" t="s">
         <v>137</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>138</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>20</v>
@@ -3396,15 +3408,15 @@
         <v>28</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="26">
         <v>4</v>
       </c>
@@ -3424,15 +3436,15 @@
         <v>26</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="25">
         <v>5</v>
       </c>
@@ -3452,15 +3464,15 @@
         <v>28</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="26">
         <v>6</v>
       </c>
@@ -3480,16 +3492,16 @@
         <v>26</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="30"/>
@@ -3499,15 +3511,15 @@
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="39" t="s">
-        <v>145</v>
+      <c r="B36" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="29" t="s">
@@ -3520,19 +3532,19 @@
         <v>0</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="26"/>
       <c r="D37" s="29" t="s">
         <v>8</v>
@@ -3544,43 +3556,43 @@
         <v>0</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="26"/>
       <c r="D38" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="30" t="s">
-        <v>138</v>
-      </c>
       <c r="G38" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29" t="s">
         <v>8</v>
@@ -3592,19 +3604,19 @@
         <v>7</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="25"/>
       <c r="D40" s="29" t="s">
         <v>8</v>
@@ -3616,19 +3628,19 @@
         <v>0</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="26"/>
       <c r="D41" s="29" t="s">
         <v>8</v>
@@ -3640,14 +3652,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -3661,7 +3673,7 @@
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
       <c r="J42" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3677,11 +3689,11 @@
       <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="39" t="s">
-        <v>145</v>
+      <c r="B44" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="29" t="s">
@@ -3694,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="26"/>
       <c r="D45" s="29" t="s">
         <v>8</v>
@@ -3718,43 +3730,43 @@
         <v>0</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="26"/>
       <c r="D46" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="30" t="s">
-        <v>138</v>
-      </c>
       <c r="G46" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I46" s="30"/>
       <c r="J46" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="26"/>
       <c r="D47" s="29" t="s">
         <v>8</v>
@@ -3766,19 +3778,19 @@
         <v>7</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="25"/>
       <c r="D48" s="29" t="s">
         <v>8</v>
@@ -3790,19 +3802,19 @@
         <v>0</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="26"/>
       <c r="D49" s="29" t="s">
         <v>8</v>
@@ -3814,14 +3826,14 @@
         <v>0</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I49" s="30"/>
       <c r="J49" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -3835,7 +3847,7 @@
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
       <c r="J50" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3928,32 +3940,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1B7FD8-E61F-4D65-A24F-9112E3D0ED89}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="56.5" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="56.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="C1" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>34</v>
@@ -3977,809 +3988,816 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="36"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="25">
+        <v>2</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="25">
+        <v>3</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="25">
+        <v>4</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="34" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="25">
+        <v>5</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="41"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="25">
+        <v>3</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="25">
+        <v>4</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="C14" s="26">
+        <v>5</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="25">
+        <v>2</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="25">
+        <v>3</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="25">
+        <v>4</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="C20" s="26">
+        <v>5</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="25">
+        <v>2</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="25">
+        <v>3</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="C26" s="26">
+        <v>5</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="25">
+        <v>1</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="25">
+        <v>2</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="25">
+        <v>3</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="25">
+        <v>4</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="26">
+        <v>5</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="36"/>
+      <c r="B33" s="34"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="B34" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="25">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="25">
+      <c r="C34" s="25">
+        <v>1</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="43"/>
+      <c r="C35" s="25">
         <v>2</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="D35" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="34" t="s">
+      <c r="F35" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="43"/>
+      <c r="C36" s="25">
         <v>3</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="34" t="s">
+      <c r="D36" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="34" t="s">
+      <c r="G36" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="43"/>
+      <c r="C37" s="25">
         <v>4</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="34" t="s">
+      <c r="D37" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="34" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="34"/>
+      <c r="C38" s="26">
         <v>5</v>
       </c>
-      <c r="F8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="25">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="25">
-        <v>2</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="25">
-        <v>3</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="25">
-        <v>4</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="E13" s="26">
-        <v>5</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="25">
-        <v>1</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="25">
-        <v>2</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="25">
-        <v>3</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="25">
-        <v>4</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="E19" s="26">
-        <v>5</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="25">
-        <v>1</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="25">
-        <v>2</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="25">
-        <v>3</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="25">
-        <v>4</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="E25" s="26">
-        <v>5</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="25">
-        <v>1</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="25">
-        <v>2</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="25">
-        <v>3</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="25">
-        <v>4</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="26">
-        <v>5</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="D32" s="34"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="25">
-        <v>1</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J33" s="34" t="s">
+      <c r="D38" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="L33" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D34" s="39"/>
-      <c r="E34" s="25">
-        <v>2</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="L34" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D35" s="39"/>
-      <c r="E35" s="25">
-        <v>3</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D36" s="39"/>
-      <c r="E36" s="25">
-        <v>4</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="L36" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D37" s="34"/>
-      <c r="E37" s="26">
-        <v>5</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="L37" s="34" t="s">
+      <c r="J38" s="34" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B28:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4803,62 +4821,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
         <v>114</v>
-      </c>
-      <c r="B16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/config/有效数据合并.xlsx
+++ b/config/有效数据合并.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproj\auditcenter_apitest\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EFF0A2-5C9D-4F3E-A16B-68A30B6771ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5F1E59-64ED-46B9-BDD5-C4332BA9F429}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6A1FF4C4-757D-4688-8A69-9529CB73075F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6A1FF4C4-757D-4688-8A69-9529CB73075F}"/>
   </bookViews>
   <sheets>
     <sheet name="门诊按处方" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="192">
   <si>
     <t>pid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,6 +871,58 @@
   </si>
   <si>
     <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终只取6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核一组即提交一组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个任务内部多组怎么排序（组号）以及审核时跳转顺序（比如先审核最后一条后，是不是应该跳转到第一条）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并任务怎么排序（组号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审里一个任务有多组，在已审会拆成多组（当前任务怎么展示？跟待审一样还是展示多组）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序问题（优先级低）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱类型为出院带药，怎么跑引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给药途径为皮试和领药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,14 +1203,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1167,6 +1216,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1615,7 +1667,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="45"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="25" t="s">
         <v>127</v>
       </c>
@@ -1638,7 +1690,7 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="45"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="25"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -1649,7 +1701,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="45"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -1696,10 +1748,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="25">
         <v>2</v>
       </c>
@@ -1724,8 +1776,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="25">
         <v>3</v>
       </c>
@@ -1750,8 +1802,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="25">
         <v>4</v>
       </c>
@@ -1823,7 +1875,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="42" t="s">
         <v>124</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -1852,7 +1904,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="43"/>
       <c r="C15" s="25">
         <v>2</v>
@@ -1877,7 +1929,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="43"/>
       <c r="C16" s="25">
         <v>3</v>
@@ -1902,7 +1954,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="25">
         <v>4</v>
@@ -1927,7 +1979,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="42"/>
       <c r="C18" s="26">
         <v>5</v>
       </c>
@@ -1955,7 +2007,7 @@
       <c r="D19" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="43" t="s">
@@ -1987,7 +2039,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="43"/>
       <c r="C22" s="26">
         <v>2</v>
@@ -2015,7 +2067,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="43"/>
       <c r="C23" s="26">
         <v>3</v>
@@ -2043,7 +2095,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="43"/>
       <c r="C24" s="26">
         <v>4</v>
@@ -2071,7 +2123,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="43"/>
       <c r="C25" s="25">
         <v>5</v>
@@ -2099,7 +2151,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="43"/>
       <c r="C26" s="26">
         <v>6</v>
@@ -2142,7 +2194,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="43" t="s">
@@ -2169,7 +2221,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="43"/>
       <c r="C29" s="26"/>
       <c r="D29" s="29" t="s">
@@ -2192,7 +2244,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="43"/>
       <c r="C30" s="26"/>
       <c r="D30" s="29" t="s">
@@ -2215,7 +2267,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="43"/>
       <c r="C31" s="26"/>
       <c r="D31" s="29" t="s">
@@ -2238,7 +2290,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="43"/>
       <c r="C32" s="25"/>
       <c r="D32" s="29" t="s">
@@ -2261,7 +2313,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="43"/>
       <c r="C33" s="26"/>
       <c r="D33" s="29" t="s">
@@ -2299,7 +2351,7 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="47" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -2327,7 +2379,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="43"/>
       <c r="C37" s="26"/>
       <c r="D37" s="29" t="s">
@@ -2351,7 +2403,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="43"/>
       <c r="C38" s="26"/>
       <c r="D38" s="29" t="s">
@@ -2375,7 +2427,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="43"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29" t="s">
@@ -2399,7 +2451,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="43"/>
       <c r="C40" s="25"/>
       <c r="D40" s="29" t="s">
@@ -2423,7 +2475,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="43"/>
       <c r="C41" s="26"/>
       <c r="D41" s="29" t="s">
@@ -2604,17 +2656,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3002,10 +3054,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="25">
         <v>2</v>
       </c>
@@ -3030,8 +3082,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="25">
         <v>3</v>
       </c>
@@ -3056,8 +3108,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="25">
         <v>4</v>
       </c>
@@ -3142,7 +3194,7 @@
       <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="42" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="43" t="s">
@@ -3172,7 +3224,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="25">
         <v>2</v>
@@ -3198,7 +3250,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="25">
         <v>3</v>
@@ -3223,7 +3275,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="43"/>
       <c r="C24" s="25">
         <v>4</v>
@@ -3249,7 +3301,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="43"/>
       <c r="C25" s="25">
         <v>5</v>
@@ -3275,7 +3327,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="30"/>
       <c r="C26" s="25">
         <v>6</v>
@@ -3327,7 +3379,7 @@
       <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="43" t="s">
@@ -3359,7 +3411,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="43"/>
       <c r="C30" s="26">
         <v>2</v>
@@ -3387,7 +3439,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="43"/>
       <c r="C31" s="26">
         <v>3</v>
@@ -3415,7 +3467,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="43"/>
       <c r="C32" s="26">
         <v>4</v>
@@ -3443,7 +3495,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="43"/>
       <c r="C33" s="25">
         <v>5</v>
@@ -3471,7 +3523,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="43"/>
       <c r="C34" s="26">
         <v>6</v>
@@ -3515,7 +3567,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -3543,7 +3595,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="43"/>
       <c r="C37" s="26"/>
       <c r="D37" s="29" t="s">
@@ -3567,7 +3619,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="43"/>
       <c r="C38" s="26"/>
       <c r="D38" s="29" t="s">
@@ -3591,7 +3643,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="43"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29" t="s">
@@ -3615,7 +3667,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="43"/>
       <c r="C40" s="25"/>
       <c r="D40" s="29" t="s">
@@ -3639,7 +3691,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="43"/>
       <c r="C41" s="26"/>
       <c r="D41" s="29" t="s">
@@ -3689,7 +3741,7 @@
       <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="47" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="43" t="s">
@@ -3717,7 +3769,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="43"/>
       <c r="C45" s="26"/>
       <c r="D45" s="29" t="s">
@@ -3741,7 +3793,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="43"/>
       <c r="C46" s="26"/>
       <c r="D46" s="29" t="s">
@@ -3765,7 +3817,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="43"/>
       <c r="C47" s="26"/>
       <c r="D47" s="29" t="s">
@@ -3789,7 +3841,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="43"/>
       <c r="C48" s="25"/>
       <c r="D48" s="29" t="s">
@@ -3813,7 +3865,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="42"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="43"/>
       <c r="C49" s="26"/>
       <c r="D49" s="29" t="s">
@@ -3940,11 +3992,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1B7FD8-E61F-4D65-A24F-9112E3D0ED89}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4027,7 +4079,7 @@
     </row>
     <row r="5" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
-      <c r="B5" s="45"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="25">
         <v>2</v>
       </c>
@@ -4053,7 +4105,7 @@
     </row>
     <row r="6" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="25">
         <v>3</v>
       </c>
@@ -4078,7 +4130,7 @@
     </row>
     <row r="7" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
-      <c r="B7" s="45"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="25">
         <v>4</v>
       </c>
@@ -4101,7 +4153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="34" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="34" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>122</v>
       </c>
@@ -4132,83 +4184,90 @@
     </row>
     <row r="9" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="41"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="B9" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="25">
+        <v>6</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="41"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="25">
-        <v>1</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H11" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="34" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="25">
-        <v>2</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="43"/>
       <c r="C12" s="25">
+        <v>2</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>1</v>
-      </c>
       <c r="F12" s="34" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>24</v>
@@ -4221,31 +4280,32 @@
       <c r="A13" s="36"/>
       <c r="B13" s="43"/>
       <c r="C13" s="25">
+        <v>3</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>4</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
-      <c r="C14" s="26">
-        <v>5</v>
+      <c r="B14" s="43"/>
+      <c r="C14" s="25">
+        <v>4</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>8</v>
@@ -4257,10 +4317,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>5</v>
@@ -4268,79 +4328,78 @@
     </row>
     <row r="15" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="C15" s="26">
+        <v>5</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B17" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="25">
-        <v>1</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H17" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34" t="s">
+      <c r="I17" s="34"/>
+      <c r="J17" s="34" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="25">
-        <v>2</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="43"/>
       <c r="C18" s="25">
+        <v>2</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>1</v>
-      </c>
       <c r="F18" s="34" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="34" t="s">
         <v>26</v>
@@ -4353,31 +4412,32 @@
       <c r="A19" s="36"/>
       <c r="B19" s="43"/>
       <c r="C19" s="25">
+        <v>3</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="34" t="s">
         <v>4</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
-      <c r="C20" s="26">
-        <v>5</v>
+      <c r="B20" s="43"/>
+      <c r="C20" s="25">
+        <v>4</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>8</v>
@@ -4389,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J20" s="34" t="s">
         <v>5</v>
@@ -4400,78 +4460,77 @@
     </row>
     <row r="21" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="C21" s="26">
+        <v>5</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B23" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="25">
-        <v>1</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H23" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J23" s="34" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="25">
-        <v>2</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="43"/>
       <c r="C24" s="25">
+        <v>2</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>1</v>
-      </c>
       <c r="F24" s="34" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>141</v>
@@ -4484,31 +4543,32 @@
       <c r="A25" s="36"/>
       <c r="B25" s="43"/>
       <c r="C25" s="25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="34" t="s">
         <v>4</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
-      <c r="C26" s="26">
-        <v>5</v>
+      <c r="B26" s="43"/>
+      <c r="C26" s="25">
+        <v>4</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>8</v>
@@ -4520,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J26" s="34" t="s">
         <v>5</v>
@@ -4531,78 +4591,77 @@
     </row>
     <row r="27" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="C27" s="26">
+        <v>5</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B29" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="25">
-        <v>1</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="34" t="s">
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H29" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="J29" s="34" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="25">
-        <v>2</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30" s="43"/>
       <c r="C30" s="25">
+        <v>2</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>1</v>
-      </c>
       <c r="F30" s="34" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>153</v>
@@ -4615,47 +4674,47 @@
       <c r="A31" s="36"/>
       <c r="B31" s="43"/>
       <c r="C31" s="25">
+        <v>3</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="34" t="s">
+    </row>
+    <row r="32" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="25">
+        <v>4</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H32" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="26">
-        <v>5</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>153</v>
       </c>
       <c r="J32" s="34" t="s">
         <v>5</v>
@@ -4664,76 +4723,77 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
       <c r="B33" s="34"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="C33" s="26">
+        <v>5</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="36"/>
+      <c r="B34" s="34"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B35" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="25">
-        <v>1</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="34" t="s">
+      <c r="C35" s="25">
+        <v>1</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H35" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J35" s="34" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="43"/>
-      <c r="C35" s="25">
-        <v>2</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="43"/>
       <c r="C36" s="25">
+        <v>2</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>1</v>
-      </c>
       <c r="F36" s="34" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>176</v>
@@ -4745,59 +4805,83 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="43"/>
       <c r="C37" s="25">
+        <v>3</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="34" t="s">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="43"/>
+      <c r="C38" s="25">
+        <v>4</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H38" s="34" t="s">
         <v>177</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="34"/>
-      <c r="C38" s="26">
-        <v>5</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>176</v>
       </c>
       <c r="J38" s="34" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="34"/>
+      <c r="C39" s="26">
+        <v>5</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4807,16 +4891,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3052E37-18F2-4A1A-81BA-7F4BB540F265}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.75" customWidth="1"/>
-    <col min="2" max="2" width="57.75" customWidth="1"/>
+    <col min="2" max="2" width="73.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -4874,9 +4958,45 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/config/有效数据合并.xlsx
+++ b/config/有效数据合并.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproj\auditcenter_apitest\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5F1E59-64ED-46B9-BDD5-C4332BA9F429}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE794996-70FC-48C7-9E13-283DEF89CE3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6A1FF4C4-757D-4688-8A69-9529CB73075F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A1FF4C4-757D-4688-8A69-9529CB73075F}"/>
   </bookViews>
   <sheets>
     <sheet name="门诊按处方" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="210">
   <si>
     <t>pid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -923,6 +923,78 @@
   </si>
   <si>
     <t>给药途径为皮试和领药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作废5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开方1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同患者开方2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,9,6,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9取5，10取6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,9,7,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9取5，10无诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复传入5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,9,8,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9取5，10取5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9取4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取有效中最新的患者信息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9处方1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10处方2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1203,12 +1275,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1216,9 +1300,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1587,11 +1668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182BBFE8-1E31-4C0E-A4C6-AA16CA19A34E}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1600,7 +1681,7 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="13" style="26" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="44.5" customWidth="1"/>
@@ -1640,7 +1721,7 @@
       <c r="A2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -1667,7 +1748,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="25" t="s">
         <v>127</v>
       </c>
@@ -1690,7 +1771,7 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="25"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -1701,7 +1782,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -1721,7 +1802,7 @@
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="25">
@@ -1748,10 +1829,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="25">
         <v>2</v>
       </c>
@@ -1776,8 +1857,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="25">
         <v>3</v>
       </c>
@@ -1802,8 +1883,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="25">
         <v>4</v>
       </c>
@@ -1821,7 +1902,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>135</v>
@@ -1850,283 +1931,194 @@
         <v>42</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25">
+        <v>6</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25">
+        <v>7</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25">
+        <v>8</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="3"/>
-      <c r="J12" s="2" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="3"/>
+      <c r="J21" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B23" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="25">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H23" t="s">
         <v>125</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="25">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="25">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H24" t="s">
         <v>24</v>
-      </c>
-      <c r="J15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="25">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="25">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="C18" s="26">
-        <v>5</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="26"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="25">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="26">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="26">
-        <v>3</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="26">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47"/>
-      <c r="B25" s="43"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
@@ -2135,26 +2127,23 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="26">
-        <v>6</v>
+      <c r="B26" s="46"/>
+      <c r="C26" s="25">
+        <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>8</v>
@@ -2165,295 +2154,308 @@
       <c r="F26" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>23</v>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27" t="s">
+      <c r="A27" s="47"/>
+      <c r="C27" s="26">
+        <v>5</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="26"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="26">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="26">
+        <v>3</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="26">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="25">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="26">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36"/>
+      <c r="B36" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="J27" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="J36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+    <row r="37" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B37" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="30" t="s">
+      <c r="C37" s="25"/>
+      <c r="D37" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H37" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J37" s="30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="3"/>
-      <c r="J34" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="26"/>
       <c r="D38" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="30"/>
+        <v>141</v>
+      </c>
       <c r="J38" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I39" s="30"/>
+        <v>142</v>
+      </c>
       <c r="J39" s="30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="29" t="s">
         <v>8</v>
       </c>
@@ -2461,23 +2463,22 @@
         <v>1</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I40" s="30"/>
+        <v>141</v>
+      </c>
       <c r="J40" s="30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="29" t="s">
         <v>8</v>
       </c>
@@ -2488,115 +2489,264 @@
         <v>0</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" s="30"/>
+        <v>142</v>
+      </c>
       <c r="J41" s="30" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="D42" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="J42" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="31"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="3"/>
+      <c r="J43" s="30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="C43" s="26"/>
-    </row>
     <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="26"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="26"/>
+      <c r="D46" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="26"/>
+      <c r="D47" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="26"/>
-    </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="C49" s="26"/>
-    </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+      <c r="D48" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="26"/>
-    </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+      <c r="D50" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="31"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="26"/>
-    </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="C52" s="26"/>
     </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="C53" s="26"/>
     </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="C54" s="26"/>
     </row>
-    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="C55" s="26"/>
     </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="C56" s="26"/>
     </row>
-    <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="C57" s="26"/>
     </row>
-    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="C58" s="26"/>
     </row>
-    <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="C59" s="26"/>
     </row>
-    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="C60" s="26"/>
     </row>
-    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="C61" s="26"/>
     </row>
-    <row r="62" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="C62" s="26"/>
     </row>
-    <row r="63" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="C63" s="26"/>
     </row>
-    <row r="64" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="C64" s="26"/>
     </row>
@@ -2604,69 +2754,105 @@
       <c r="A65" s="8"/>
       <c r="C65" s="26"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
-      <c r="B66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C66" s="26"/>
+    </row>
+    <row r="67" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
-      <c r="B67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C67" s="26"/>
+    </row>
+    <row r="68" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
-      <c r="B68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+      <c r="C68" s="26"/>
+    </row>
+    <row r="69" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="C69" s="26"/>
+    </row>
+    <row r="70" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="C70" s="26"/>
+    </row>
+    <row r="71" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="C71" s="26"/>
+    </row>
+    <row r="72" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="C72" s="26"/>
+    </row>
+    <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
+      <c r="C73" s="26"/>
+    </row>
+    <row r="74" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="C74" s="26"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="228" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="81" spans="1:9" ht="228" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="4"/>
+      <c r="I81" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2731,7 +2917,7 @@
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -2760,7 +2946,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
@@ -2787,7 +2973,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
@@ -2814,7 +3000,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="48"/>
+      <c r="B5" s="51"/>
       <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
@@ -2841,7 +3027,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="48"/>
+      <c r="B6" s="51"/>
       <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
@@ -2868,7 +3054,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
@@ -2895,7 +3081,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -2922,7 +3108,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="51"/>
       <c r="D9" s="12" t="s">
         <v>49</v>
       </c>
@@ -2949,7 +3135,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="46" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -2974,7 +3160,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
@@ -3000,7 +3186,7 @@
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="D12" s="19" t="s">
         <v>49</v>
       </c>
@@ -3027,7 +3213,7 @@
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="25">
@@ -3054,10 +3240,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="25">
         <v>2</v>
       </c>
@@ -3082,8 +3268,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="25">
         <v>3</v>
       </c>
@@ -3108,8 +3294,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="25">
         <v>4</v>
       </c>
@@ -3194,10 +3380,10 @@
       <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="46" t="s">
         <v>139</v>
       </c>
       <c r="C21" s="25">
@@ -3224,8 +3410,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="25">
         <v>2</v>
       </c>
@@ -3250,8 +3436,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="25">
         <v>3</v>
       </c>
@@ -3275,8 +3461,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="25">
         <v>4</v>
       </c>
@@ -3301,8 +3487,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="25">
         <v>5</v>
       </c>
@@ -3327,7 +3513,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="30"/>
       <c r="C26" s="25">
         <v>6</v>
@@ -3379,10 +3565,10 @@
       <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="46" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="25">
@@ -3411,8 +3597,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="26">
         <v>2</v>
       </c>
@@ -3439,8 +3625,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="26">
         <v>3</v>
       </c>
@@ -3467,8 +3653,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="26">
         <v>4</v>
       </c>
@@ -3495,8 +3681,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="25">
         <v>5</v>
       </c>
@@ -3523,8 +3709,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="26">
         <v>6</v>
       </c>
@@ -3567,10 +3753,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="46" t="s">
         <v>144</v>
       </c>
       <c r="C36" s="25"/>
@@ -3595,8 +3781,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="26"/>
       <c r="D37" s="29" t="s">
         <v>8</v>
@@ -3619,8 +3805,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="26"/>
       <c r="D38" s="29" t="s">
         <v>8</v>
@@ -3643,8 +3829,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29" t="s">
         <v>8</v>
@@ -3667,8 +3853,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="25"/>
       <c r="D40" s="29" t="s">
         <v>8</v>
@@ -3691,8 +3877,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="26"/>
       <c r="D41" s="29" t="s">
         <v>8</v>
@@ -3741,10 +3927,10 @@
       <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="46" t="s">
         <v>144</v>
       </c>
       <c r="C44" s="25"/>
@@ -3769,8 +3955,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="26"/>
       <c r="D45" s="29" t="s">
         <v>8</v>
@@ -3793,8 +3979,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="26"/>
       <c r="D46" s="29" t="s">
         <v>8</v>
@@ -3817,8 +4003,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="26"/>
       <c r="D47" s="29" t="s">
         <v>8</v>
@@ -3841,8 +4027,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="25"/>
       <c r="D48" s="29" t="s">
         <v>8</v>
@@ -3865,8 +4051,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="26"/>
       <c r="D49" s="29" t="s">
         <v>8</v>
@@ -4052,7 +4238,7 @@
       <c r="A4" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="25">
@@ -4079,7 +4265,7 @@
     </row>
     <row r="5" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
-      <c r="B5" s="44"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="25">
         <v>2</v>
       </c>
@@ -4105,7 +4291,7 @@
     </row>
     <row r="6" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="25">
         <v>3</v>
       </c>
@@ -4130,7 +4316,7 @@
     </row>
     <row r="7" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
-      <c r="B7" s="44"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="25">
         <v>4</v>
       </c>
@@ -4225,7 +4411,7 @@
       <c r="A11" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="25">
@@ -4253,7 +4439,7 @@
     </row>
     <row r="12" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="25">
         <v>2</v>
       </c>
@@ -4278,7 +4464,7 @@
     </row>
     <row r="13" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="25">
         <v>3</v>
       </c>
@@ -4303,7 +4489,7 @@
     </row>
     <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
-      <c r="B14" s="43"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="25">
         <v>4</v>
       </c>
@@ -4357,7 +4543,7 @@
       <c r="A17" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="25">
@@ -4385,7 +4571,7 @@
     </row>
     <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="25">
         <v>2</v>
       </c>
@@ -4410,7 +4596,7 @@
     </row>
     <row r="19" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="25">
         <v>3</v>
       </c>
@@ -4435,7 +4621,7 @@
     </row>
     <row r="20" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
-      <c r="B20" s="43"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="25">
         <v>4</v>
       </c>
@@ -4489,7 +4675,7 @@
       <c r="A23" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="25">
@@ -4516,7 +4702,7 @@
     </row>
     <row r="24" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
-      <c r="B24" s="43"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="25">
         <v>2</v>
       </c>
@@ -4541,7 +4727,7 @@
     </row>
     <row r="25" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
-      <c r="B25" s="43"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="25">
         <v>3</v>
       </c>
@@ -4566,7 +4752,7 @@
     </row>
     <row r="26" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="25">
         <v>4</v>
       </c>
@@ -4620,7 +4806,7 @@
       <c r="A29" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="25">
@@ -4647,7 +4833,7 @@
     </row>
     <row r="30" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
-      <c r="B30" s="43"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="25">
         <v>2</v>
       </c>
@@ -4672,7 +4858,7 @@
     </row>
     <row r="31" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
-      <c r="B31" s="43"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="25">
         <v>3</v>
       </c>
@@ -4697,7 +4883,7 @@
     </row>
     <row r="32" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
-      <c r="B32" s="43"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="25">
         <v>4</v>
       </c>
@@ -4753,7 +4939,7 @@
       <c r="A35" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="25">
@@ -4779,7 +4965,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="43"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="25">
         <v>2</v>
       </c>
@@ -4803,7 +4989,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="43"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="25">
         <v>3</v>
       </c>
@@ -4827,7 +5013,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="43"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="25">
         <v>4</v>
       </c>
@@ -4893,7 +5079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3052E37-18F2-4A1A-81BA-7F4BB540F265}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/config/有效数据合并.xlsx
+++ b/config/有效数据合并.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproj\auditcenter_apitest\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\auditcenter_apitest\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE794996-70FC-48C7-9E13-283DEF89CE3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BA8CBF-A24D-456C-81C5-97BD1C3C469C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A1FF4C4-757D-4688-8A69-9529CB73075F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6A1FF4C4-757D-4688-8A69-9529CB73075F}"/>
   </bookViews>
   <sheets>
     <sheet name="门诊按处方" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="212">
   <si>
     <t>pid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,10 +760,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意重复传入和修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>orders</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,6 +986,18 @@
   </si>
   <si>
     <t>10处方2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改取最新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作废则不展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复传入只入库一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,14 +1287,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1300,6 +1300,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1672,25 +1675,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="13" style="26" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" customWidth="1"/>
     <col min="8" max="8" width="44.5" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="42.5" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="C1" s="24" t="s">
         <v>112</v>
@@ -1717,7 +1720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>151</v>
       </c>
@@ -1747,8 +1750,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="48"/>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="47"/>
       <c r="C3" s="25" t="s">
         <v>127</v>
       </c>
@@ -1770,8 +1773,8 @@
       <c r="I3" s="2"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="48"/>
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="47"/>
       <c r="C4" s="25"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -1781,8 +1784,8 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="48"/>
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="47"/>
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -1792,13 +1795,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>156</v>
-      </c>
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1828,11 +1828,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="25">
         <v>2</v>
       </c>
@@ -1856,9 +1856,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="48"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="25">
         <v>3</v>
       </c>
@@ -1882,9 +1882,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="48"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="25">
         <v>4</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>122</v>
       </c>
@@ -1931,117 +1931,126 @@
         <v>42</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="27"/>
       <c r="C12" s="25">
         <v>6</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="27"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I13" s="43"/>
     </row>
-    <row r="14" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="27"/>
       <c r="C14" s="25">
         <v>8</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="27"/>
       <c r="C15" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="27"/>
       <c r="C16" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>207</v>
-      </c>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="27"/>
       <c r="C18" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>200</v>
+      <c r="E18" s="42" t="s">
+        <v>209</v>
       </c>
       <c r="I18" s="43"/>
     </row>
-    <row r="19" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>202</v>
+      <c r="E19" s="42" t="s">
+        <v>210</v>
       </c>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="27"/>
       <c r="C20" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>205</v>
+      <c r="E20" s="42" t="s">
+        <v>211</v>
       </c>
       <c r="I20" s="43"/>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>123</v>
       </c>
@@ -2054,14 +2063,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="C22" s="26"/>
       <c r="D22" s="3"/>
       <c r="E22" s="44"/>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -2089,8 +2098,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45"/>
       <c r="B24" s="46"/>
       <c r="C24" s="25">
         <v>2</v>
@@ -2114,8 +2123,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
       <c r="B25" s="46"/>
       <c r="C25" s="25">
         <v>3</v>
@@ -2139,8 +2148,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="45"/>
       <c r="B26" s="46"/>
       <c r="C26" s="25">
         <v>4</v>
@@ -2164,8 +2173,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
       <c r="C27" s="26">
         <v>5</v>
       </c>
@@ -2188,12 +2197,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="26"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="46" t="s">
@@ -2224,8 +2233,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
       <c r="B31" s="46"/>
       <c r="C31" s="26">
         <v>2</v>
@@ -2252,8 +2261,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+    <row r="32" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
       <c r="B32" s="46"/>
       <c r="C32" s="26">
         <v>3</v>
@@ -2280,8 +2289,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
       <c r="B33" s="46"/>
       <c r="C33" s="26">
         <v>4</v>
@@ -2308,8 +2317,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
       <c r="B34" s="46"/>
       <c r="C34" s="25">
         <v>5</v>
@@ -2336,8 +2345,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
       <c r="B35" s="46"/>
       <c r="C35" s="26">
         <v>6</v>
@@ -2364,7 +2373,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36" t="s">
         <v>134</v>
@@ -2379,8 +2388,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+    <row r="37" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="46" t="s">
@@ -2406,8 +2415,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
       <c r="B38" s="46"/>
       <c r="C38" s="26"/>
       <c r="D38" s="29" t="s">
@@ -2429,8 +2438,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
       <c r="B39" s="46"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29" t="s">
@@ -2452,8 +2461,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
       <c r="B40" s="46"/>
       <c r="C40" s="26"/>
       <c r="D40" s="29" t="s">
@@ -2475,8 +2484,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
       <c r="B41" s="46"/>
       <c r="C41" s="25"/>
       <c r="D41" s="29" t="s">
@@ -2498,8 +2507,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
       <c r="B42" s="46"/>
       <c r="C42" s="26"/>
       <c r="D42" s="29" t="s">
@@ -2521,7 +2530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31"/>
       <c r="B43" s="28"/>
       <c r="C43" s="26"/>
@@ -2530,14 +2539,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="28"/>
       <c r="C44" s="26"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="45" t="s">
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="46" t="s">
@@ -2564,8 +2573,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
       <c r="B46" s="46"/>
       <c r="C46" s="26"/>
       <c r="D46" s="29" t="s">
@@ -2588,8 +2597,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
       <c r="B47" s="46"/>
       <c r="C47" s="26"/>
       <c r="D47" s="29" t="s">
@@ -2612,8 +2621,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
       <c r="B48" s="46"/>
       <c r="C48" s="26"/>
       <c r="D48" s="29" t="s">
@@ -2636,8 +2645,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
+    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
       <c r="B49" s="46"/>
       <c r="C49" s="25"/>
       <c r="D49" s="29" t="s">
@@ -2660,8 +2669,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
       <c r="B50" s="46"/>
       <c r="C50" s="26"/>
       <c r="D50" s="29" t="s">
@@ -2684,7 +2693,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
       <c r="B51" s="28"/>
       <c r="C51" s="26"/>
@@ -2698,99 +2707,99 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="C52" s="26"/>
     </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="C53" s="26"/>
     </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="C54" s="26"/>
     </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="C55" s="26"/>
     </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="C56" s="26"/>
     </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="C57" s="26"/>
     </row>
-    <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="C58" s="26"/>
     </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="C59" s="26"/>
     </row>
-    <row r="60" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="C60" s="26"/>
     </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="C61" s="26"/>
     </row>
-    <row r="62" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="C62" s="26"/>
     </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="C63" s="26"/>
     </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="C64" s="26"/>
     </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="C65" s="26"/>
     </row>
-    <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="C66" s="26"/>
     </row>
-    <row r="67" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="C67" s="26"/>
     </row>
-    <row r="68" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="C68" s="26"/>
     </row>
-    <row r="69" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="C69" s="26"/>
     </row>
-    <row r="70" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="C70" s="26"/>
     </row>
-    <row r="71" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="C71" s="26"/>
     </row>
-    <row r="72" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="C72" s="26"/>
     </row>
-    <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="C73" s="26"/>
     </row>
-    <row r="74" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="C74" s="26"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="2"/>
       <c r="D75" s="2"/>
@@ -2800,7 +2809,7 @@
       <c r="H75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="2"/>
       <c r="D76" s="2"/>
@@ -2810,7 +2819,7 @@
       <c r="H76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="2"/>
       <c r="D77" s="2"/>
@@ -2820,12 +2829,12 @@
       <c r="H77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="228" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="224" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -2842,17 +2851,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="A45:A50"/>
     <mergeCell ref="B45:B50"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2869,27 +2878,27 @@
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.08203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
     <col min="12" max="12" width="15" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="C1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>34</v>
@@ -2913,7 +2922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -2945,7 +2954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="51"/>
       <c r="D3" s="12" t="s">
         <v>8</v>
@@ -2972,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
       <c r="D4" s="12" t="s">
         <v>8</v>
@@ -2999,7 +3008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="51"/>
       <c r="D5" s="12" t="s">
         <v>8</v>
@@ -3026,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="51"/>
       <c r="D6" s="12" t="s">
         <v>8</v>
@@ -3053,7 +3062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="51"/>
       <c r="D7" s="12" t="s">
         <v>8</v>
@@ -3080,7 +3089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="51"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
@@ -3107,7 +3116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="51"/>
       <c r="D9" s="12" t="s">
         <v>49</v>
@@ -3134,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="46" t="s">
         <v>40</v>
       </c>
@@ -3159,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="46"/>
       <c r="D11" s="16" t="s">
         <v>8</v>
@@ -3182,7 +3191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -3208,8 +3217,8 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
@@ -3239,11 +3248,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="25">
         <v>2</v>
       </c>
@@ -3267,9 +3276,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="48"/>
+    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="25">
         <v>3</v>
       </c>
@@ -3293,9 +3302,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="48"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="25">
         <v>4</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="112" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>122</v>
       </c>
@@ -3349,7 +3358,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>123</v>
       </c>
@@ -3367,7 +3376,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="30"/>
       <c r="C20" s="26"/>
@@ -3379,8 +3388,8 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -3409,8 +3418,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
       <c r="B22" s="46"/>
       <c r="C22" s="25">
         <v>2</v>
@@ -3435,8 +3444,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45"/>
       <c r="B23" s="46"/>
       <c r="C23" s="25">
         <v>3</v>
@@ -3460,8 +3469,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="45"/>
       <c r="B24" s="46"/>
       <c r="C24" s="25">
         <v>4</v>
@@ -3486,8 +3495,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
       <c r="B25" s="46"/>
       <c r="C25" s="25">
         <v>5</v>
@@ -3512,8 +3521,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="45"/>
       <c r="B26" s="30"/>
       <c r="C26" s="25">
         <v>6</v>
@@ -3538,7 +3547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="26"/>
@@ -3552,7 +3561,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="26"/>
@@ -3564,8 +3573,8 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="46" t="s">
@@ -3596,8 +3605,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
       <c r="B30" s="46"/>
       <c r="C30" s="26">
         <v>2</v>
@@ -3624,8 +3633,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
       <c r="B31" s="46"/>
       <c r="C31" s="26">
         <v>3</v>
@@ -3652,8 +3661,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
       <c r="B32" s="46"/>
       <c r="C32" s="26">
         <v>4</v>
@@ -3680,8 +3689,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
       <c r="B33" s="46"/>
       <c r="C33" s="25">
         <v>5</v>
@@ -3708,8 +3717,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
       <c r="B34" s="46"/>
       <c r="C34" s="26">
         <v>6</v>
@@ -3736,7 +3745,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30" t="s">
         <v>134</v>
@@ -3752,8 +3761,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -3780,8 +3789,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
       <c r="B37" s="46"/>
       <c r="C37" s="26"/>
       <c r="D37" s="29" t="s">
@@ -3804,8 +3813,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
       <c r="B38" s="46"/>
       <c r="C38" s="26"/>
       <c r="D38" s="29" t="s">
@@ -3828,8 +3837,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
       <c r="B39" s="46"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29" t="s">
@@ -3852,8 +3861,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
       <c r="B40" s="46"/>
       <c r="C40" s="25"/>
       <c r="D40" s="29" t="s">
@@ -3876,8 +3885,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
       <c r="B41" s="46"/>
       <c r="C41" s="26"/>
       <c r="D41" s="29" t="s">
@@ -3900,7 +3909,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="31"/>
       <c r="B42" s="28"/>
       <c r="C42" s="26"/>
@@ -3914,7 +3923,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31"/>
       <c r="B43" s="28"/>
       <c r="C43" s="26"/>
@@ -3926,8 +3935,8 @@
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="46" t="s">
@@ -3954,8 +3963,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
       <c r="B45" s="46"/>
       <c r="C45" s="26"/>
       <c r="D45" s="29" t="s">
@@ -3978,8 +3987,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
       <c r="B46" s="46"/>
       <c r="C46" s="26"/>
       <c r="D46" s="29" t="s">
@@ -4002,8 +4011,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
       <c r="B47" s="46"/>
       <c r="C47" s="26"/>
       <c r="D47" s="29" t="s">
@@ -4026,8 +4035,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
       <c r="B48" s="46"/>
       <c r="C48" s="25"/>
       <c r="D48" s="29" t="s">
@@ -4050,8 +4059,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
       <c r="B49" s="46"/>
       <c r="C49" s="26"/>
       <c r="D49" s="29" t="s">
@@ -4074,7 +4083,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="31"/>
       <c r="B50" s="28"/>
       <c r="C50" s="26"/>
@@ -4088,58 +4097,58 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
     </row>
-    <row r="71" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="126" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>38</v>
       </c>
@@ -4185,21 +4194,21 @@
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="56.5" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="14.58203125" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="C1" s="24" t="s">
         <v>112</v>
@@ -4226,17 +4235,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>40</v>
@@ -4263,9 +4272,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
-      <c r="B5" s="48"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="25">
         <v>2</v>
       </c>
@@ -4289,9 +4298,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="25">
         <v>3</v>
       </c>
@@ -4314,9 +4323,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
-      <c r="B7" s="48"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="25">
         <v>4</v>
       </c>
@@ -4339,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="34" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="34" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>122</v>
       </c>
@@ -4368,10 +4377,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="25">
         <v>6</v>
@@ -4389,27 +4398,27 @@
         <v>42</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="41"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>40</v>
@@ -4437,7 +4446,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="46"/>
       <c r="C12" s="25">
@@ -4462,7 +4471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="46"/>
       <c r="C13" s="25">
@@ -4487,7 +4496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="46"/>
       <c r="C14" s="25">
@@ -4512,7 +4521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="C15" s="26">
         <v>5</v>
@@ -4536,12 +4545,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>40</v>
@@ -4562,14 +4571,14 @@
         <v>18</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="46"/>
       <c r="C18" s="25">
@@ -4594,7 +4603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="46"/>
       <c r="C19" s="25">
@@ -4619,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="46"/>
       <c r="C20" s="25">
@@ -4644,7 +4653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="C21" s="26">
         <v>5</v>
@@ -4668,12 +4677,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>40</v>
@@ -4691,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>143</v>
@@ -4700,7 +4709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="46"/>
       <c r="C24" s="25">
@@ -4716,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>141</v>
@@ -4725,7 +4734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="46"/>
       <c r="C25" s="25">
@@ -4741,7 +4750,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>141</v>
@@ -4750,7 +4759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="46"/>
       <c r="C26" s="25">
@@ -4766,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>142</v>
@@ -4775,7 +4784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="C27" s="26">
         <v>5</v>
@@ -4790,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>141</v>
@@ -4799,12 +4808,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>40</v>
@@ -4831,7 +4840,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="46"/>
       <c r="C30" s="25">
@@ -4856,7 +4865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="46"/>
       <c r="C31" s="25">
@@ -4881,7 +4890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="46"/>
       <c r="C32" s="25">
@@ -4906,7 +4915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="34"/>
       <c r="C33" s="26">
@@ -4931,13 +4940,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="34"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="46" t="s">
         <v>40</v>
@@ -4955,16 +4964,16 @@
         <v>0</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J35" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B36" s="46"/>
       <c r="C36" s="25">
         <v>2</v>
@@ -4979,16 +4988,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J36" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" s="46"/>
       <c r="C37" s="25">
         <v>3</v>
@@ -5003,16 +5012,16 @@
         <v>7</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" s="46"/>
       <c r="C38" s="25">
         <v>4</v>
@@ -5027,16 +5036,16 @@
         <v>0</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J38" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" s="34"/>
       <c r="C39" s="26">
         <v>5</v>
@@ -5051,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J39" s="34" t="s">
         <v>5</v>
@@ -5083,13 +5092,13 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.75" customWidth="1"/>
     <col min="2" max="2" width="73.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -5097,7 +5106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -5105,7 +5114,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -5113,7 +5122,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -5121,22 +5130,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -5144,45 +5153,45 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>184</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>189</v>
       </c>
-      <c r="B20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
